--- a/publication/web-root/matchsync/ValueSet-ms-cmv-codes.xlsx
+++ b/publication/web-root/matchsync/ValueSet-ms-cmv-codes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:31:42-06:00</t>
+    <t>2025-01-16T21:22:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
